--- a/biology/Botanique/Lysimaque_commune/Lysimaque_commune.xlsx
+++ b/biology/Botanique/Lysimaque_commune/Lysimaque_commune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lysimachia vulgaris
-La Lysimaque commune (Lysimachia vulgaris) encore appelée Grande lysimaque est une espèce de plantes à fleurs de la famille des Primulacées selon la classification classique et la classification phylogénétique APG III (2009)[1].
+La Lysimaque commune (Lysimachia vulgaris) encore appelée Grande lysimaque est une espèce de plantes à fleurs de la famille des Primulacées selon la classification classique et la classification phylogénétique APG III (2009).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante herbacée vivace, au port érigé, mesure environ 1 m de hauteur. Les feuilles sont opposées ou verticillées par 3 ou 4. L'inflorescence est un racème de racèmes. Les fleurs sont jaunes, ont un diamètre de 15 à 20 mm et apparaissent de juillet à septembre. Le fruit est une capsule contenant des graines capables d'être disséminées par l'eau
 			Habitus.
@@ -546,7 +560,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Native d'Europe méridionale, cette espèce se trouve aujourd'hui sur tout le continent et même au-delà. Elle pousse dans les prairies humides et sur les berges des rivières, notamment dans les mégaphorbiaies, les roselières et grandes cariçaies eurasiatiques.
 </t>
